--- a/input/testing_case.xlsx
+++ b/input/testing_case.xlsx
@@ -29,12 +29,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="90">
+  <si>
+    <t>Case Name</t>
+  </si>
   <si>
     <t>IRA Module</t>
   </si>
   <si>
-    <t>Testing Case</t>
+    <t>Case Scenario</t>
   </si>
   <si>
     <t>Image &amp; Video</t>
@@ -43,22 +46,148 @@
     <t>Prompt</t>
   </si>
   <si>
-    <t>Gemini-1.5-pro Result</t>
-  </si>
-  <si>
-    <t>Recording</t>
+    <t>Expected Result</t>
+  </si>
+  <si>
+    <t>Test Case 1</t>
   </si>
   <si>
     <t>Vedio2Frame</t>
   </si>
   <si>
-    <t>pixel coordinates recognition</t>
+    <t>logic understanding in video</t>
+  </si>
+  <si>
+    <t>input\video\1.mp4</t>
+  </si>
+  <si>
+    <t>Tell what did the ops do per the video recording</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Test Case 2</t>
+  </si>
+  <si>
+    <t>input\video\2.mp4</t>
+  </si>
+  <si>
+    <t>Test Case 3</t>
+  </si>
+  <si>
+    <t>action understanding in video</t>
+  </si>
+  <si>
+    <t>How many steps actioned in the video?</t>
+  </si>
+  <si>
+    <t>Test Case 4</t>
+  </si>
+  <si>
+    <t>application recognition in video</t>
+  </si>
+  <si>
+    <t>input\video\1.mp5</t>
+  </si>
+  <si>
+    <t>How many applications are involved in the video?</t>
+  </si>
+  <si>
+    <t>Test Case 5</t>
+  </si>
+  <si>
+    <t>input\video\1.mp6</t>
+  </si>
+  <si>
+    <t>Please tell all the window titles opened in the video</t>
+  </si>
+  <si>
+    <t>Test Case 6</t>
+  </si>
+  <si>
+    <t>position recognition in video</t>
+  </si>
+  <si>
+    <t>input\video\1.mp7</t>
+  </si>
+  <si>
+    <t>Please tell the pixel coordinate for each step in the video, the upper left corner pixel coordinate is (0,0), the lower right corner pixel coordinate is (2557,1440)</t>
+  </si>
+  <si>
+    <t>Test Case 7</t>
+  </si>
+  <si>
+    <t>widnow recognition in video</t>
+  </si>
+  <si>
+    <t>input\video\1.mp8</t>
+  </si>
+  <si>
+    <t>Cut each step in the video into a frame and tell the window title for each frame, as well as the pixel coordinate for each step. Screen resolution is 2557*1440, the upper left corner pixel coordinate is (0,0)</t>
+  </si>
+  <si>
+    <t>Test Case 8</t>
+  </si>
+  <si>
+    <t>element recognitoin in video</t>
+  </si>
+  <si>
+    <t>input\video\1.mp9</t>
+  </si>
+  <si>
+    <t>Describe each of the steps in the video in json format with attibute of action type, action position, action text</t>
+  </si>
+  <si>
+    <t>Test Case 9</t>
+  </si>
+  <si>
+    <t>element recognitoin in image</t>
+  </si>
+  <si>
+    <t>input\image\2.png</t>
+  </si>
+  <si>
+    <t>List all the types of controls on the image</t>
+  </si>
+  <si>
+    <t>Test Case 10</t>
+  </si>
+  <si>
+    <t>How many buttons in the image?</t>
+  </si>
+  <si>
+    <t>Test Case 11</t>
   </si>
   <si>
     <t>input\image\1.png</t>
   </si>
   <si>
-    <t>what's the pixel coordinate of cell A1 relative to the image, starting from the top-left corner of the entire image, the entire image coordinate is 2558*1440</t>
+    <t>What's the text on each of the buttons?</t>
+  </si>
+  <si>
+    <t>Test Case 12</t>
+  </si>
+  <si>
+    <t>position recognition in image</t>
+  </si>
+  <si>
+    <t>What's the pixel coordinate of quit button relative to the image, starting from the top-left corner of the entire image, the entire image coordinate is 2558*1440, the upper left corner pixel coornidate is (0,0)</t>
+  </si>
+  <si>
+    <t>Test Case 13</t>
+  </si>
+  <si>
+    <t>position recognition in Excel image</t>
+  </si>
+  <si>
+    <t>input\image\3.png</t>
+  </si>
+  <si>
+    <t>what's the pixel coordinate of cell A1 relative to the image, starting from the top-left corner of the entire image, the entire image coordinate is 2558*1440, the upper left corner pixel coornidate is (0,0)</t>
+  </si>
+  <si>
+    <t>Test Case 14</t>
   </si>
   <si>
     <t>This is a screenshot of an Excel sheet and the resolution is 2557*1440, please tell the pixel coordinate of cell A1 in the screenshot based on the resolution data Spreadsheet Area Boundaries: Top-Left Corner: (41,261)
@@ -67,22 +196,40 @@
 Average Row Height (Pixels): 20</t>
   </si>
   <si>
-    <t>step recognition</t>
-  </si>
-  <si>
-    <t>FramePicker</t>
+    <t>Test Case 15</t>
   </si>
   <si>
     <t>Concept Analyzer</t>
   </si>
   <si>
-    <t>Excel concept recognition</t>
-  </si>
-  <si>
-    <t>input\image\2.png</t>
+    <t>window recognition in image</t>
+  </si>
+  <si>
+    <t>Pleae tell the window title in the image</t>
+  </si>
+  <si>
+    <t>Test Case 16</t>
+  </si>
+  <si>
+    <t>Concept Analyzer/OCR</t>
+  </si>
+  <si>
+    <t>text recognition in image</t>
+  </si>
+  <si>
+    <t>Tell me the content in the navigation panel</t>
+  </si>
+  <si>
+    <t>Test Case 17</t>
+  </si>
+  <si>
+    <t>text recognition in Excel image</t>
   </si>
   <si>
     <t>tell me the content in excel use table format, ignore the picture in excel</t>
+  </si>
+  <si>
+    <t>Test Case 18</t>
   </si>
   <si>
     <t>Tell me the content in this Excel spreadsheet image, excluding the content in embedded picture in the Excel. 
@@ -90,34 +237,73 @@
 Keys: Cell positions (e.g., "A1", "B2") Values: Cell data</t>
   </si>
   <si>
-    <t>OCR accuracy in Excel</t>
+    <t>Test Case 19</t>
+  </si>
+  <si>
+    <t>input\image\4.png</t>
   </si>
   <si>
     <t>show me the content use table format</t>
   </si>
   <si>
-    <t>OCR accuracy</t>
-  </si>
-  <si>
-    <t>input\image\3.png</t>
+    <t>Test Case 20</t>
+  </si>
+  <si>
+    <t>number recognition in Excel image</t>
+  </si>
+  <si>
+    <t>Test Case 21</t>
   </si>
   <si>
     <t>recognize all the text in the picture</t>
   </si>
   <si>
-    <t>input\image\4.png</t>
-  </si>
-  <si>
-    <t>Identifier</t>
-  </si>
-  <si>
-    <t>Pattern Generator</t>
-  </si>
-  <si>
-    <t>Knowledge Generator</t>
-  </si>
-  <si>
-    <t>Replayer</t>
+    <t>Test Case 22</t>
+  </si>
+  <si>
+    <t>Test Case 23</t>
+  </si>
+  <si>
+    <t>input\image\5.png</t>
+  </si>
+  <si>
+    <t>Test Case 24</t>
+  </si>
+  <si>
+    <t>Image Recognition</t>
+  </si>
+  <si>
+    <t>duplication position recognition in image</t>
+  </si>
+  <si>
+    <t>input\image\6.png</t>
+  </si>
+  <si>
+    <t>Test Case 25</t>
+  </si>
+  <si>
+    <t>Error Handling</t>
+  </si>
+  <si>
+    <t>zoom in/out</t>
+  </si>
+  <si>
+    <t>Is OK button visible on the image?</t>
+  </si>
+  <si>
+    <t>Test Case 26</t>
+  </si>
+  <si>
+    <t>scroll down</t>
+  </si>
+  <si>
+    <t>Test Case 27</t>
+  </si>
+  <si>
+    <t>popup window</t>
+  </si>
+  <si>
+    <t>Is popup window exist?</t>
   </si>
 </sst>
 </file>
@@ -144,16 +330,16 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="12"/>
       <name val="Calibri"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -777,8 +963,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -790,19 +979,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1116,26 +1305,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="19.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="133.25" style="3" customWidth="1"/>
-    <col min="5" max="5" width="58" style="4" customWidth="1"/>
+    <col min="1" max="1" width="10.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="35.75" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="133.25" style="4" customWidth="1"/>
+    <col min="6" max="6" width="15.375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" spans="1:5">
-      <c r="A1" s="5" t="s">
+    <row r="1" ht="15.75" spans="1:6">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
@@ -1144,145 +1334,492 @@
       <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="1" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" ht="120" spans="2:4">
-      <c r="B4" s="1" t="s">
+      <c r="E4" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2">
-      <c r="B9" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>14</v>
+      <c r="C5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" ht="30" spans="1:5">
+      <c r="A8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" ht="30" spans="1:5">
+      <c r="A13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" ht="45" spans="1:4">
-      <c r="A14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>14</v>
+        <v>38</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" ht="30" spans="1:5">
+      <c r="A14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>18</v>
+        <v>50</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" ht="120" spans="1:5">
+      <c r="A15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="3:3">
-      <c r="C16" s="8"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>20</v>
+        <v>38</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>20</v>
+        <v>43</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="3:3">
-      <c r="C21" s="8"/>
+        <v>38</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" ht="45" spans="1:5">
+      <c r="A19" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="2"/>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="2"/>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="2"/>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="A32" s="2"/>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="A33" s="2"/>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="A34" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/input/testing_case.xlsx
+++ b/input/testing_case.xlsx
@@ -4,12 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17460"/>
+    <workbookView windowWidth="29865" windowHeight="13605"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="184">
   <si>
     <t>Case Name</t>
   </si>
@@ -52,234 +50,483 @@
     <t>Test Case 1</t>
   </si>
   <si>
+    <t>logic understanding in video</t>
+  </si>
+  <si>
+    <t>input\video\1.mp4</t>
+  </si>
+  <si>
+    <t>Tell me what the operator did in this video?</t>
+  </si>
+  <si>
+    <t>Test Case 2</t>
+  </si>
+  <si>
+    <t>In the video, operator is searching the weather on a website for several cities from a spreadsheet and update it with the searched result. Please tell the detailed steps in the video.</t>
+  </si>
+  <si>
+    <t>Test Case 3</t>
+  </si>
+  <si>
+    <t>This is a recorded video in which operator is searching the weather on a website for 3 cities one by one from a spreadsheet column A and update corresponding column B with the searched temprature result. Please tell the detailed steps in the video with citi names specified.</t>
+  </si>
+  <si>
+    <t>Test Case 4</t>
+  </si>
+  <si>
+    <t>logical reasoning</t>
+  </si>
+  <si>
+    <t>This is a recorded video in which operator is searching the weather on a website for 3 cities one by one from a spreadsheet column A and update corresponding column B with the searched temprature result. Please tell how to find a weather for Yunnan use same method, step by step.</t>
+  </si>
+  <si>
+    <t>Test Case 5</t>
+  </si>
+  <si>
     <t>Vedio2Frame</t>
   </si>
   <si>
-    <t>logic understanding in video</t>
-  </si>
-  <si>
-    <t>input\video\1.mp4</t>
-  </si>
-  <si>
-    <t>Tell what did the ops do per the video recording</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>Test Case 2</t>
-  </si>
-  <si>
-    <t>input\video\2.mp4</t>
-  </si>
-  <si>
-    <t>Test Case 3</t>
-  </si>
-  <si>
     <t>action understanding in video</t>
   </si>
   <si>
     <t>How many steps actioned in the video?</t>
   </si>
   <si>
-    <t>Test Case 4</t>
+    <t>Test Case 6</t>
+  </si>
+  <si>
+    <t>How many click steps actioned in the video?</t>
+  </si>
+  <si>
+    <t>Test Case 7</t>
+  </si>
+  <si>
+    <t>Please tell the timestamp for each action, like click, press, keyin...</t>
+  </si>
+  <si>
+    <t>Test Case 8</t>
+  </si>
+  <si>
+    <t>How many applciatoins are operated in the video?</t>
+  </si>
+  <si>
+    <t>Test Case 9</t>
   </si>
   <si>
     <t>application recognition in video</t>
   </si>
   <si>
-    <t>input\video\1.mp5</t>
-  </si>
-  <si>
-    <t>How many applications are involved in the video?</t>
-  </si>
-  <si>
-    <t>Test Case 5</t>
-  </si>
-  <si>
-    <t>input\video\1.mp6</t>
-  </si>
-  <si>
     <t>Please tell all the window titles opened in the video</t>
   </si>
   <si>
-    <t>Test Case 6</t>
+    <t>Test Case 10</t>
+  </si>
+  <si>
+    <t>widnow recognition in video</t>
+  </si>
+  <si>
+    <t>Please tell the window title for the application opened in the left side of the screen</t>
+  </si>
+  <si>
+    <t>Test Case 11</t>
+  </si>
+  <si>
+    <t>Please tell the window title for the application opened in the right side of the screen</t>
+  </si>
+  <si>
+    <t>Test Case 12</t>
   </si>
   <si>
     <t>position recognition in video</t>
   </si>
   <si>
-    <t>input\video\1.mp7</t>
-  </si>
-  <si>
     <t>Please tell the pixel coordinate for each step in the video, the upper left corner pixel coordinate is (0,0), the lower right corner pixel coordinate is (2557,1440)</t>
   </si>
   <si>
-    <t>Test Case 7</t>
-  </si>
-  <si>
-    <t>widnow recognition in video</t>
-  </si>
-  <si>
-    <t>input\video\1.mp8</t>
+    <t>Test Case 13</t>
   </si>
   <si>
     <t>Cut each step in the video into a frame and tell the window title for each frame, as well as the pixel coordinate for each step. Screen resolution is 2557*1440, the upper left corner pixel coordinate is (0,0)</t>
   </si>
   <si>
-    <t>Test Case 8</t>
-  </si>
-  <si>
-    <t>element recognitoin in video</t>
-  </si>
-  <si>
-    <t>input\video\1.mp9</t>
-  </si>
-  <si>
-    <t>Describe each of the steps in the video in json format with attibute of action type, action position, action text</t>
-  </si>
-  <si>
-    <t>Test Case 9</t>
+    <t>Test Case 14</t>
+  </si>
+  <si>
+    <t>OCR</t>
+  </si>
+  <si>
+    <t>What's the tempreture for Shanghai from the video? Only give me the number without °C</t>
+  </si>
+  <si>
+    <t>Test Case 15</t>
+  </si>
+  <si>
+    <t>What's the tempreture for Beijing from the video? Only give me the number without °C</t>
+  </si>
+  <si>
+    <t>Test Case 16</t>
+  </si>
+  <si>
+    <t>What's the tempreture for Guangzhou from the video? Only give me the number without °C</t>
+  </si>
+  <si>
+    <t>Test Case 17</t>
+  </si>
+  <si>
+    <t>Show me the data in the spreadsheet after the tempreture is updated in spreadsheet column B for all the cities listed in spreadsheet column A, in table format</t>
+  </si>
+  <si>
+    <t>Test Case 18</t>
+  </si>
+  <si>
+    <t>Show me the data in the spreadsheet column A and B at the end of the video, in table format, column A is citi name, column B is the corresponding tempreture</t>
+  </si>
+  <si>
+    <t>Test Case 19</t>
+  </si>
+  <si>
+    <t>Show me the data in the spreadsheet column A and B at the end of the video, in table format, column A is citi name, column B is the corresponding tempreture,  there are 3 cities in the spreadsheet</t>
+  </si>
+  <si>
+    <t>Test Case 20</t>
+  </si>
+  <si>
+    <t>Show me the data in the spreadsheet column A and B at the end of the video, in json format, column A is citi name, column B is the corresponding tempreture, there are 3 cities in the spreadsheet</t>
+  </si>
+  <si>
+    <t>Test Case 21</t>
+  </si>
+  <si>
+    <t>text recognition in video</t>
+  </si>
+  <si>
+    <t>Tell me the citi names in the spreadsheet at the end of the video, there are 3 citi names in spreadsheet column A</t>
+  </si>
+  <si>
+    <t>Test Case 22</t>
+  </si>
+  <si>
+    <t>In the video, operator is searching the weather on a website for several cities from a spreadsheet. Please give the citi names in the spreadsheet.</t>
+  </si>
+  <si>
+    <t>Test Case 23</t>
+  </si>
+  <si>
+    <t>In the video, operator is searching the weather on a website for several cities from a spreadsheet. Citi names are list in the spreadsheet column A. Please tell how many citi names are there and give each of the name.</t>
+  </si>
+  <si>
+    <t>Test Case 24</t>
+  </si>
+  <si>
+    <t>In the video, operator is searching the weather on a website for several cities from a spreadsheet. There are 3 cities list in the spreadsheet column A. Please give each of the name.</t>
+  </si>
+  <si>
+    <t>Test Case 25</t>
+  </si>
+  <si>
+    <t>application recognition in image</t>
+  </si>
+  <si>
+    <t>input\image\1.png</t>
+  </si>
+  <si>
+    <t>What's the application opened in the image?</t>
+  </si>
+  <si>
+    <t>WPS Office</t>
+  </si>
+  <si>
+    <t>Test Case 26</t>
+  </si>
+  <si>
+    <t>window recognition in image</t>
+  </si>
+  <si>
+    <t>Please tell the window title in the image</t>
+  </si>
+  <si>
+    <t>Multimodal Model testing</t>
+  </si>
+  <si>
+    <t>Test Case 27</t>
+  </si>
+  <si>
+    <t>input\image\2.png</t>
+  </si>
+  <si>
+    <t>Application Pools</t>
+  </si>
+  <si>
+    <t>Test Case 28</t>
+  </si>
+  <si>
+    <t>input\image\3.png</t>
+  </si>
+  <si>
+    <t>Configure Forecast Tree Engine Profiles</t>
+  </si>
+  <si>
+    <t>Test Case 29</t>
   </si>
   <si>
     <t>element recognitoin in image</t>
   </si>
   <si>
-    <t>input\image\2.png</t>
-  </si>
-  <si>
-    <t>List all the types of controls on the image</t>
-  </si>
-  <si>
-    <t>Test Case 10</t>
-  </si>
-  <si>
-    <t>How many buttons in the image?</t>
-  </si>
-  <si>
-    <t>Test Case 11</t>
-  </si>
-  <si>
-    <t>input\image\1.png</t>
-  </si>
-  <si>
-    <t>What's the text on each of the buttons?</t>
-  </si>
-  <si>
-    <t>Test Case 12</t>
+    <t>List all the controls on the image with same type grouped together, include the control type, the number for each type, control name, in json format</t>
+  </si>
+  <si>
+    <t>Test Case 30</t>
+  </si>
+  <si>
+    <t>input\image\4.png</t>
+  </si>
+  <si>
+    <t>Test Case 31</t>
+  </si>
+  <si>
+    <t>Image Recognition</t>
+  </si>
+  <si>
+    <t>How many buttons in the image? only tell me the digital result</t>
+  </si>
+  <si>
+    <t>Test Case 32</t>
+  </si>
+  <si>
+    <t>Test Case 33</t>
+  </si>
+  <si>
+    <t>input\image\6.png</t>
+  </si>
+  <si>
+    <t>How many "Refresh" buttons in this image? only tell me the digital result</t>
+  </si>
+  <si>
+    <t>Test Case 34</t>
+  </si>
+  <si>
+    <t>How many tables on the right side of the image?</t>
+  </si>
+  <si>
+    <t>Test Case 35</t>
+  </si>
+  <si>
+    <t>What's the text on each of the buttons?  Only tell me the text with "," splited</t>
+  </si>
+  <si>
+    <t>OK,Close</t>
+  </si>
+  <si>
+    <t>Test Case 36</t>
   </si>
   <si>
     <t>position recognition in image</t>
   </si>
   <si>
-    <t>What's the pixel coordinate of quit button relative to the image, starting from the top-left corner of the entire image, the entire image coordinate is 2558*1440, the upper left corner pixel coornidate is (0,0)</t>
-  </si>
-  <si>
-    <t>Test Case 13</t>
+    <t>What's the pixel coordinate of "OK" button on the image? The entire image resolution is 631*355, top-left corner: (0,0), bottom-right corner: (631,355)</t>
+  </si>
+  <si>
+    <t>Test Case 37</t>
   </si>
   <si>
     <t>position recognition in Excel image</t>
   </si>
   <si>
-    <t>input\image\3.png</t>
-  </si>
-  <si>
-    <t>what's the pixel coordinate of cell A1 relative to the image, starting from the top-left corner of the entire image, the entire image coordinate is 2558*1440, the upper left corner pixel coornidate is (0,0)</t>
-  </si>
-  <si>
-    <t>Test Case 14</t>
-  </si>
-  <si>
-    <t>This is a screenshot of an Excel sheet and the resolution is 2557*1440, please tell the pixel coordinate of cell A1 in the screenshot based on the resolution data Spreadsheet Area Boundaries: Top-Left Corner: (41,261)
+    <t>This is a screenshot of an Excel sheet and the resolution is 2557*1440, please tell the pixel coordinate of cell A1 in the screenshot based on the resolution data Spreadsheet Area Boundaries: 
+Top-Left Corner: (41,261)
 Bottom-Right Corner (Visible Grid): (2463,1339)
 Cell Dimensions (At Least One): Average Column Width (Pixels): 90
 Average Row Height (Pixels): 20</t>
   </si>
   <si>
-    <t>Test Case 15</t>
+    <t>Test Case 38</t>
   </si>
   <si>
     <t>Concept Analyzer</t>
   </si>
   <si>
-    <t>window recognition in image</t>
-  </si>
-  <si>
-    <t>Pleae tell the window title in the image</t>
-  </si>
-  <si>
-    <t>Test Case 16</t>
-  </si>
-  <si>
-    <t>Concept Analyzer/OCR</t>
-  </si>
-  <si>
-    <t>text recognition in image</t>
+    <t>json string generation from video</t>
+  </si>
+  <si>
+    <t>This is a recorded video in which operator is searching the weather on a website for 3 cities one by one from a spreadsheet column A and update corresponding column B with the searched temprature result. Please breakdown step by step in this video with json format includes step number, ation type(like click, press, keyin...), action value, action description, next step number.</t>
+  </si>
+  <si>
+    <t>Test Case 39</t>
+  </si>
+  <si>
+    <t>This is a recorded video in which operator is searching the weather on a website for 3 cities one by one from a spreadsheet column A and update corresponding column B with the searched temprature result.  Screen resolution is 2557*1440, the upper left corner pixel coordinate is (0,0). Please breakdown step by step in this video with json format includes step number, ation type(like click, press, keyin...), action value, pixel coordinate for action postion, action description, next step number.</t>
+  </si>
+  <si>
+    <t>Test Case 40</t>
+  </si>
+  <si>
+    <t>json string generation for logical reasoning</t>
+  </si>
+  <si>
+    <t>This is a recorded video in which operator is searching the weather on a website for 3 cities one by one from a spreadsheet column A and update corresponding column B with the searched temprature result. Please share me a json formated string for how to get the tempreture for Yunnan use same methed, includes step number, ation type(like click, press, keyin...), action value, action description, next step number.</t>
+  </si>
+  <si>
+    <t>Test Case 41</t>
+  </si>
+  <si>
+    <t>text recognition in image/OCR</t>
+  </si>
+  <si>
+    <t>Tell me all the text in the image, from top to bottom and left to right</t>
+  </si>
+  <si>
+    <t>Test Case 42</t>
+  </si>
+  <si>
+    <t>Test Case 43</t>
+  </si>
+  <si>
+    <t>text recognition in Excel image/OCR</t>
+  </si>
+  <si>
+    <t>Only show me the text in excel active sheet, without sheet name</t>
+  </si>
+  <si>
+    <t>Test Case 44</t>
+  </si>
+  <si>
+    <t>number recognition in Excel image/OCR</t>
+  </si>
+  <si>
+    <t>input\image\7.png</t>
+  </si>
+  <si>
+    <t>Only show me the text in cell E1 of excel active sheet</t>
+  </si>
+  <si>
+    <t>LL11ll</t>
+  </si>
+  <si>
+    <t>Test Case 45</t>
+  </si>
+  <si>
+    <t>text recognition in Flexcube image/OCR</t>
   </si>
   <si>
     <t>Tell me the content in the navigation panel</t>
   </si>
   <si>
-    <t>Test Case 17</t>
-  </si>
-  <si>
-    <t>text recognition in Excel image</t>
-  </si>
-  <si>
-    <t>tell me the content in excel use table format, ignore the picture in excel</t>
-  </si>
-  <si>
-    <t>Test Case 18</t>
+    <t>Test Case 46</t>
+  </si>
+  <si>
+    <t>Tell me the content in this Excel spreadsheet image in json format where: Keys: Cell positions (e.g., "A1", "B2") Values: Cell data</t>
+  </si>
+  <si>
+    <t>Test Case 47</t>
   </si>
   <si>
     <t>Tell me the content in this Excel spreadsheet image, excluding the content in embedded picture in the Excel. 
-Output will be a JSON string where: 
-Keys: Cell positions (e.g., "A1", "B2") Values: Cell data</t>
-  </si>
-  <si>
-    <t>Test Case 19</t>
-  </si>
-  <si>
-    <t>input\image\4.png</t>
+Output will be a JSON string where: Keys: Cell positions (e.g., "A1", "B2") Values: Cell data</t>
+  </si>
+  <si>
+    <t>Test Case 48</t>
+  </si>
+  <si>
+    <t>Show me the json data for all the tables in the image with table name, table attributes, table values</t>
+  </si>
+  <si>
+    <t>Test Case 49</t>
+  </si>
+  <si>
+    <t>input\image\5.png</t>
   </si>
   <si>
     <t>show me the content use table format</t>
   </si>
   <si>
-    <t>Test Case 20</t>
-  </si>
-  <si>
-    <t>number recognition in Excel image</t>
-  </si>
-  <si>
-    <t>Test Case 21</t>
-  </si>
-  <si>
-    <t>recognize all the text in the picture</t>
-  </si>
-  <si>
-    <t>Test Case 22</t>
-  </si>
-  <si>
-    <t>Test Case 23</t>
-  </si>
-  <si>
-    <t>input\image\5.png</t>
-  </si>
-  <si>
-    <t>Test Case 24</t>
-  </si>
-  <si>
-    <t>Image Recognition</t>
+    <t>Test Case 50</t>
+  </si>
+  <si>
+    <t>input\image\8.png</t>
+  </si>
+  <si>
+    <t>One cell is selected in the Excel spreadsheet image, please tell the selected cell positon and the cell value in json format, example {"B2":"3"}</t>
+  </si>
+  <si>
+    <t>{"A2": "A2"}</t>
+  </si>
+  <si>
+    <t>Test Case 51</t>
+  </si>
+  <si>
+    <t>input\image\9.png</t>
+  </si>
+  <si>
+    <t>{"A2":"12"}</t>
+  </si>
+  <si>
+    <t>Test Case 52</t>
   </si>
   <si>
     <t>duplication position recognition in image</t>
   </si>
   <si>
-    <t>input\image\6.png</t>
-  </si>
-  <si>
-    <t>Test Case 25</t>
+    <t>Which table does the first "Refresh" button belongs to, from the upper left corner? Only tell me the table name.</t>
+  </si>
+  <si>
+    <t>Current Users Summary</t>
+  </si>
+  <si>
+    <t>Test Case 53</t>
+  </si>
+  <si>
+    <t>Which table does the first "Refresh" button belongs to, from the lower right corner? Only tell me the table name.</t>
+  </si>
+  <si>
+    <t>Module Dashboard Summary</t>
+  </si>
+  <si>
+    <t>Test Case 54</t>
+  </si>
+  <si>
+    <t>Is OK button visible on the image? Only tell "Yes" or "No"</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Test Case 55</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Test Case 56</t>
+  </si>
+  <si>
+    <t>Test Case 57</t>
+  </si>
+  <si>
+    <t>Replayer</t>
+  </si>
+  <si>
+    <t>step guidance</t>
+  </si>
+  <si>
+    <t>input\image\10.png</t>
+  </si>
+  <si>
+    <t>I want merge the first row in Excel spreadsheet, please check the image to understand what I've already done and guide the next step.</t>
+  </si>
+  <si>
+    <t>Test Case 58</t>
+  </si>
+  <si>
+    <t>I want merge the first row in Excel spreadsheet, and I've already selected the first row, please guide the next step simply.</t>
+  </si>
+  <si>
+    <t>Test Case 59</t>
+  </si>
+  <si>
+    <t>input\image\11.png</t>
+  </si>
+  <si>
+    <t>Test Case 60</t>
   </si>
   <si>
     <t>Error Handling</t>
@@ -288,22 +535,55 @@
     <t>zoom in/out</t>
   </si>
   <si>
-    <t>Is OK button visible on the image?</t>
-  </si>
-  <si>
-    <t>Test Case 26</t>
+    <t>Is "FC12DBDEV" present in the image? Only tell "Yes" or "No"</t>
+  </si>
+  <si>
+    <t>Test Case 61</t>
+  </si>
+  <si>
+    <t>input\image\6.1.png</t>
+  </si>
+  <si>
+    <t>Test Case 62</t>
   </si>
   <si>
     <t>scroll down</t>
   </si>
   <si>
-    <t>Test Case 27</t>
+    <t>input\image\12.png</t>
+  </si>
+  <si>
+    <t>Is "Save" button present in the image? Only tell "Yes" or "No"</t>
+  </si>
+  <si>
+    <t>Test Case 63</t>
+  </si>
+  <si>
+    <t>input\image\12.1.png</t>
+  </si>
+  <si>
+    <t>Test Case 64</t>
   </si>
   <si>
     <t>popup window</t>
   </si>
   <si>
-    <t>Is popup window exist?</t>
+    <t>Is popup window exist? Only tell "Yes" or "No"</t>
+  </si>
+  <si>
+    <t>Test Case 65</t>
+  </si>
+  <si>
+    <t>Test Case 66</t>
+  </si>
+  <si>
+    <t>Test Case 67</t>
+  </si>
+  <si>
+    <t>Test Case 68</t>
+  </si>
+  <si>
+    <t>How to close the popup window in this image?</t>
   </si>
 </sst>
 </file>
@@ -963,7 +1243,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -979,8 +1259,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -991,8 +1271,14 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1305,10 +1591,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="E41" workbookViewId="0">
+      <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
@@ -1316,9 +1602,9 @@
     <col min="1" max="1" width="10.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="22.625" style="2" customWidth="1"/>
     <col min="3" max="3" width="35.75" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16.625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="133.25" style="4" customWidth="1"/>
-    <col min="6" max="6" width="15.375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="19.125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="172.625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="34.125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" spans="1:6">
@@ -1337,527 +1623,1254 @@
       <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" ht="30" spans="1:5">
+      <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="4" t="s">
+    </row>
+    <row r="5" ht="30" spans="1:5">
+      <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="2" t="s">
+    <row r="8" spans="1:5">
+      <c r="A8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="3" t="s">
+      <c r="D9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" ht="30" spans="1:5">
-      <c r="A8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>35</v>
+      <c r="F9" s="5">
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>7</v>
+        <v>30</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="F15" s="5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="4" t="s">
+      <c r="D16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="13" ht="30" spans="1:5">
-      <c r="A13" s="2" t="s">
+      <c r="F16" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B17" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" ht="30" spans="1:5">
-      <c r="A14" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" ht="120" spans="1:5">
-      <c r="A15" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>61</v>
+      <c r="F17" s="5">
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>63</v>
+        <v>7</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19" ht="45" spans="1:5">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="2" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>63</v>
+        <v>7</v>
       </c>
       <c r="D19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>63</v>
+        <v>7</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>71</v>
+        <v>7</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>76</v>
+        <v>8</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="E29" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F29" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C25" s="2" t="s">
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="B30" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E25" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="2" t="s">
+      <c r="D30" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E30" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B26" s="2" t="s">
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="B31" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E26" s="4" t="s">
+      <c r="E31" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="2" t="s">
+      <c r="B32" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C27" s="2" t="s">
+      <c r="C32" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E32" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="2" t="s">
+      <c r="F32" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C28" s="2" t="s">
+      <c r="B33" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F33" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D28" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E28" s="4" t="s">
+      <c r="B34" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D34" s="3" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="2"/>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="2"/>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="2"/>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="2"/>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="2"/>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="2"/>
+      <c r="E34" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F34" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F35" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="38" ht="75" spans="1:5">
+      <c r="A38" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="39" ht="30" spans="1:5">
+      <c r="A39" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="40" ht="45" spans="1:5">
+      <c r="A40" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="41" ht="30" spans="1:5">
+      <c r="A41" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="48" ht="30" spans="1:5">
+      <c r="A48" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>183</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/input/testing_case.xlsx
+++ b/input/testing_case.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="87">
   <si>
     <t>Case Name</t>
   </si>
@@ -56,7 +56,18 @@
     <t>input\video\1.mp4</t>
   </si>
   <si>
-    <t>Tell me what this video is doing, step by step. Mark each step with numbers like 1., 2., 3., etc.Do not include anything that is not in the video.</t>
+    <r>
+      <t>In the video, operater is searching citi tempreture from a website for a list of cities from spredsheet column A, and then fill spredsheet column B with the tempreture result. Tell me each detailed step in the video</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> in sequence with numbers (1, 2, 3, etc.). Do not include anything that is not shown in the video.</t>
+    </r>
   </si>
   <si>
     <t>Test Case 4</t>
@@ -65,10 +76,29 @@
     <t>logical reasoning</t>
   </si>
   <si>
-    <t>After learning from the provided video on searching for weather forecasts, show the process step by step to search for the weather forecast for Yunnan.Do not include anything that is not in the video.</t>
-  </si>
-  <si>
-    <t>Test Case 5</t>
+    <r>
+      <t xml:space="preserve">The video shows steps how to search for the weather tempreture for </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>some cities</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> from an opened website and fill back to spreadsheet with the rempreture result. Based on the steps in the video, describe how to get the weather tempreture for "Yunnan" following same steps.</t>
+    </r>
+  </si>
+  <si>
+    <t>Test Case 7</t>
   </si>
   <si>
     <t>Vedio2Frame</t>
@@ -77,13 +107,29 @@
     <t>action understanding in video</t>
   </si>
   <si>
-    <t>After learning from the provided video, tell how many steps are there in total. Do not include anything that is not in the video.In this context, a step is defined as an individual action such as clicking a button or selecting a dropdown value. Only give the number in the answer.</t>
-  </si>
-  <si>
-    <t>Test Case 7</t>
-  </si>
-  <si>
-    <t>A step is defined as an individual action such as clicking a button or selecting a dropdown value. After learning from the provided video, identify each step and its corresponding time stamp. Do not include anything that is not in the video.Present the results in JSON format where the key is the time stamp and the value is the description of the step.</t>
+    <t>input\video\6.mp4</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Analyze the video which clicked some Excel cell in column A and then entered value. Output in JSON format with details of each click (including number of steps for each click, clicked cell position, cell value and the timestamp at which each step occurs). Note that there is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>computer system time</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> shown in the lower right corner of the video which can be refered for the timestamp.</t>
+    </r>
   </si>
   <si>
     <t>Test Case 9</t>
@@ -92,22 +138,179 @@
     <t>application recognition in video</t>
   </si>
   <si>
-    <t>List all the window titles that are open on the screen. Window title is usually at the top of the application window within the title bar.Use a numbered list (e.g., 1. [title1], 2. [title2], etc.).</t>
-  </si>
-  <si>
-    <t>Test Case 10</t>
-  </si>
-  <si>
-    <t>widnow recognition in video</t>
-  </si>
-  <si>
-    <t>Tell the window title of the application on the left side of the video. The application is opened in a browser. Window title is usually at the top of the application window within the title bar.Window titles of applications opened in a browser usually have an underscore followed by the browser type(like chrome) as a suffix.</t>
-  </si>
-  <si>
-    <t>Test Case 11</t>
-  </si>
-  <si>
-    <t>What is the window title of the application on the right side of the screen? Window title is usually at the top of the application window within the title bar.</t>
+    <r>
+      <t>List all the window titles that are open on the screen with a numbered list (e.g., 1. [title1], 2. [title2], etc.).</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Window title</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> is usually at the top of the application window within the title bar.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>成都市天气</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>百度搜索</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上海天气</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>百度搜索</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>北京天气</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>百度搜索</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+4.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>广州天气</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>百度搜索</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+2. work.xlsx</t>
+    </r>
   </si>
   <si>
     <t>Test Case 12</t>
@@ -116,13 +319,26 @@
     <t>position recognition in video</t>
   </si>
   <si>
-    <t>After learning from the provided video with a known resolution of 2557*1440, identify action steps in each frame in the video and determine the pixel coordinates of each step. In this context, a step is defined as an individual action such as clicking a button or selecting a dropdown value.Present the results with all action steps in JSON format where the key is the frame number and the value is the corresponding pixel coordinates.</t>
-  </si>
-  <si>
-    <t>Test Case 13</t>
-  </si>
-  <si>
-    <t>After learning from the provided video with a known resolution of 2557*1440, identify each frame in the video and determine the pixel coordinates and the window title of application being operated of each frame. Window title is usually at the top of the application window within the title bar.Present the results in JSON format where the key is the frame number and the value is object containing the corresponding pixel coordinates and window title.</t>
+    <r>
+      <t xml:space="preserve">Please analyze the video and output the actions in the video in JSON format. Include the action type (e.g., click, drop down), the title of the application window where the action occurs, the pixel position of each action. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">The specific task is </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>to search for the temperature of cities on a temperature website and write the temperature information of the cities into an Excel spreadsheet. The list of cities is in the Excel spreadsheet.  Note that the resolution of the video when I recorded it is 2560*1379.Window title is usually at the top of the application window within the title bar.</t>
+    </r>
   </si>
   <si>
     <t>Test Case 17</t>
@@ -131,34 +347,210 @@
     <t>OCR</t>
   </si>
   <si>
-    <t>After learning from the provided video which shows the process of taking city names from an Excel sheet, searching for the weather and temperature of each city on a website, and filling the corresponding temperature information in the Excel sheet. Once all the city temperatures are filled in the Excel sheet, list the data in table format with columns for city name and temperature.</t>
-  </si>
-  <si>
-    <t>Test Case 18</t>
-  </si>
-  <si>
-    <t>After learning from the provided video which shows the process of taking city names from an Excel sheet, searching for the weather and temperature of each city on a website, and filling the corresponding temperature information in the Excel sheet. Provide the data in table format with columns for city name and temperature at the end of the video.Do not include anything that is not in the video.</t>
-  </si>
-  <si>
-    <t>Test Case 20</t>
-  </si>
-  <si>
-    <t>After learning from the provided video which shows the process of taking city names from an Excel sheet, searching for the weather and temperature of each city on a website, and filling the corresponding temperature information in the Excel sheet. Provide the data in JSON format where the key is the city name and the value is the corresponding temperature at the end of the video.Do not include anything that is not in the video.</t>
-  </si>
-  <si>
-    <t>Test Case 21</t>
+    <r>
+      <t xml:space="preserve">After learning from the provided video which </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>shows the process of</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> taking city names from an Excel sheet, searching for the weather and temperature of each city on a website, and filling the corresponding temperature information in the Excel sheet. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Once all the city temperatures are filled</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> in the Excel sheet, list the data in table format with columns for city name and temperature.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">| City Name | Temperature |
+| </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上海</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> | 35° |
+| </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>北京</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> | 32° |
+| </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>广州</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> | 35° |</t>
+    </r>
+  </si>
+  <si>
+    <t>Test Case 22</t>
   </si>
   <si>
     <t>text recognition in video</t>
   </si>
   <si>
-    <t>At the end of the video, list the content of the spreadsheet column A in the order from top to bottom. Mark each item with numbers like 1., 2., 3., etc. and ensure the order is correct.</t>
-  </si>
-  <si>
-    <t>Test Case 22</t>
-  </si>
-  <si>
-    <t>At the end of the video, list all the city names that were operated on in the video in the order they were processed. Mark each city name with numbers like 1., 2., 3., etc. Do not include anything that is not in the video.</t>
+    <r>
+      <t xml:space="preserve">Analyze the video and output the list of all cities in the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>order</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> they were processed. Prefix each city with a number (e.g., 1. City Name).Do not include any citi that is not shown in the video.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上海</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>北京</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>广州</t>
+    </r>
+  </si>
+  <si>
+    <t>Test Case 22_1</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Analyze the video and output the list of all cities in the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>order</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> they were processed. Prefix each city with a number (e.g., 1. City Name). Do not include anything that is not shown in the video.The specific task in the video is to search for the temperature of cities on a temperature website and write the temperature information of the cities into an Excel spreadsheet.</t>
+    </r>
   </si>
   <si>
     <t>Test Case 27</t>
@@ -170,7 +562,58 @@
     <t>input\image\2.png</t>
   </si>
   <si>
-    <t>Tell the window title in the image. Window title is usually at the top of the application window within the title bar.</t>
+    <r>
+      <t xml:space="preserve">Tell the window title in the image. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Window title is</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> usually at the top of the application window within the title bar.</t>
+    </r>
+  </si>
+  <si>
+    <t>no window title</t>
+  </si>
+  <si>
+    <t>Test Case 27_1</t>
+  </si>
+  <si>
+    <t>input\image\14.png</t>
+  </si>
+  <si>
+    <r>
+      <t>上海天气</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>百度搜索</t>
+    </r>
   </si>
   <si>
     <t>Test Case 29</t>
@@ -182,7 +625,18 @@
     <t>input\image\3.png</t>
   </si>
   <si>
-    <t>Identify the controls on the provided image. For each control type (such as button, combo box, dropdown, etc.), list the count and the names of the controls. Present the results in JSON format where the key is the control type and the value is an object containing a list of the control names and the count. For example, if there are two buttons named "OK" and "Close", the JSON would be: "{"button":{"count":2,"names":["OK","Close"]}}". Distinguish between combo boxes and dropdowns carefully.</t>
+    <r>
+      <t xml:space="preserve">Identify the controls on the provided image. For each control type (such as button, combo box, dropdown, etc.), list the count and the names of the controls. Present the results in JSON format where the key is the control type and the value is an object containing a list of the control names and the count. For example, if there are two buttons named "OK" and "Close", the JSON would be: "{"button":{"count":2,"names":["OK","Close"]}}". </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Distinguish between combo boxes and dropdowns carefully.</t>
+    </r>
   </si>
   <si>
     <t>Test Case 30</t>
@@ -191,6 +645,20 @@
     <t>input\image\4.png</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">Identify all the controls on the entire image, including both left and right parts. For each control type (such as button, combo box, dropdown, etc.), list the count and the names of the controls. Present the results in JSON format where the key is the control type and the value is an object containing a list of the control names and the count. For example, if there are two buttons named "OK" and "Close", the JSON would be: "{"button":{"count":2,"names":["OK","Close"]}}". </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Distinguish between combo boxes and dropdowns carefully.</t>
+    </r>
+  </si>
+  <si>
     <t>Test Case 33</t>
   </si>
   <si>
@@ -200,7 +668,18 @@
     <t>input\image\6.png</t>
   </si>
   <si>
-    <t>Identify the number of "Refresh" buttons on the provided image. Present the result as a single number only. For example, if there are five refresh buttons, show '5'.</t>
+    <r>
+      <t xml:space="preserve">Identify the number of "Refresh" buttons on the provided image. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Present the result as a single number only. For example, if there are five refresh buttons, show '5'.</t>
+    </r>
   </si>
   <si>
     <t>Test Case 38</t>
@@ -212,9 +691,28 @@
     <t>json string generation from video</t>
   </si>
   <si>
-    <t>Analyze the provided video and learn only the steps and processes that are present in the video. For each step in the video, identify the step action type, action value, action description, next step, and the pixel coordinates of that step. Present the results in JSON format where each item represents a step and contains the fields: 
+    <r>
+      <t xml:space="preserve">Analyze the provided video and learn </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>only the steps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> and processes that are present in the video. For each step in the video, identify the step action type, action value, action description, next step, and the pixel coordinates of that step. Present the results in JSON format where each item represents a step and contains the fields: 
 "step",
-"action_type", "action_value", "action_description",  "pixel_coordinates" and "next_step".</t>
+"action_type", "action_value", "action_description",  "pixel_coordinates" and "next_step". Note that the resolution of the video when I recorded it is 2560*1379.</t>
+    </r>
   </si>
   <si>
     <t>Test Case 44</t>
@@ -226,19 +724,89 @@
     <t>input\image\7.png</t>
   </si>
   <si>
-    <t>Identify the value in cell E1 of the Excel sheet in the image. Pay attention to distinguishing between the letter 'i' and the number '1'. Present the result clearly.</t>
+    <t>Identify the value in cell E1 of the Excel sheet in the image. Pay attention to distinguishing between the letter 'l' and the number '1'. Present the result clearly.</t>
   </si>
   <si>
     <t>LL11ll</t>
   </si>
   <si>
+    <t>Test Case 44_1</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Analyze the Excel screenshot image and output the cell contents in JSON format. The key represents the cell position (e.g., A1, B1), and the value is the content of the corresponding cell. Note that some cell values may contain characters like </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'1','l', '0', 'o'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>, which can be easily confused. Pay special attention to these characters when outputting the results.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>```json
+{
+    "A1": "too",
+    "B1": "t00",
+    "C1": "ll",
+    "D1": "iill",
+    "E1": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>LL11ll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>",
+    "A3": "top",
+    "B3": "100",
+    "C3": "lily",
+    "E4": "Lee"
+}
+```</t>
+    </r>
+  </si>
+  <si>
     <t>Test Case 48</t>
   </si>
   <si>
     <t>text recognition in Excel image/OCR</t>
   </si>
   <si>
-    <t>Show me the json data for all the tables in the image with table name, table attributes, table values, pay attention to the accuracy of recognition.</t>
+    <r>
+      <t xml:space="preserve">Show me the json data for all the tables in the image with table name, table attributes, table values, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>pay attention to the accuracy of recognition. Pay attention to recognize '4' and 'A', '5' and 'S'.</t>
+    </r>
   </si>
   <si>
     <t>Test Case 59</t>
@@ -253,7 +821,88 @@
     <t>input\image\11.png</t>
   </si>
   <si>
-    <t>I want merge the first row in Excel spreadsheet. Analyze the current steps shown in the image which already done. Based on the analysis, provide the exact next step with detailed instructions.</t>
+    <r>
+      <t>I want merge the first row in Excel spreadsheet. Analyze the current steps shown in the image which already done. Based on the analysis,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> provide the exact next step</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> with detailed instructions.</t>
+    </r>
+  </si>
+  <si>
+    <t>click on the "确定" button</t>
+  </si>
+  <si>
+    <t>Test Case 69</t>
+  </si>
+  <si>
+    <t>input\image\2.mp4</t>
+  </si>
+  <si>
+    <t>Please accurately analyze the number of times "123" appears, ensure the accuracy and consistency of the results.</t>
+  </si>
+  <si>
+    <t>Test Case 70</t>
+  </si>
+  <si>
+    <t>input\image\3.mp4</t>
+  </si>
+  <si>
+    <t>Analyze the number of click events in the video. Each click is accompanied by a water ripple for the cursor. Determine the number of clicks based on the number of visible water ripples.</t>
+  </si>
+  <si>
+    <t>Test Case 71</t>
+  </si>
+  <si>
+    <t>Analyze the number of click events in the video. In Excel operations, each time an Excel cell is clicked, a selection frame appears. Determine the number of clicks based on the number of visible selection frames.</t>
+  </si>
+  <si>
+    <t>input\image\4.mp4</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Analyze the video to count the number of times the prompt box with a red background and white text appears and contains the words "&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>左键</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&gt;". Each such occurrence represents a left-click event. Determine the total number of left-click events.</t>
+    </r>
+  </si>
+  <si>
+    <t>Test Case 72</t>
+  </si>
+  <si>
+    <t>input\image\13.png</t>
   </si>
 </sst>
 </file>
@@ -266,7 +915,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -280,14 +929,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
@@ -434,6 +1083,29 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="35">
@@ -913,7 +1585,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -929,29 +1601,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1266,8 +1941,8 @@
   <sheetPr/>
   <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
@@ -1276,59 +1951,63 @@
     <col min="2" max="2" width="22.625" style="2" customWidth="1"/>
     <col min="3" max="3" width="29.75" style="2" customWidth="1"/>
     <col min="4" max="4" width="19.125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="47.875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="34.125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="47.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="25.125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" spans="1:6">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="45" spans="1:5">
+    <row r="2" ht="90" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" ht="60" spans="1:5">
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" ht="75" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" ht="75" spans="1:6">
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" ht="105" spans="1:6">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -1339,346 +2018,402 @@
         <v>15</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="5">
+      <c r="E4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" ht="210" spans="1:6">
+      <c r="A5" s="2" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="5" ht="90" spans="1:5">
-      <c r="A5" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" ht="60" spans="1:5">
+      <c r="E5" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" ht="150" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" ht="90" spans="1:5">
+      <c r="E6" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" ht="150" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" ht="45" spans="1:5">
+      <c r="E7" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" ht="60" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>14</v>
+        <v>29</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" ht="105" spans="1:6">
+      <c r="A9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" ht="120" spans="1:5">
-      <c r="A9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="C9" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" ht="120" spans="1:5">
+      <c r="E9" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" ht="45" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" ht="105" spans="1:5">
+        <v>37</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" ht="30" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" ht="105" spans="1:5">
+        <v>41</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" ht="135" spans="1:6">
       <c r="A12" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" ht="120" spans="1:5">
+        <v>45</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="10"/>
+    </row>
+    <row r="13" ht="135" spans="1:6">
       <c r="A13" s="2" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" ht="60" spans="1:5">
+        <v>48</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="10"/>
+    </row>
+    <row r="14" ht="45" spans="1:6">
       <c r="A14" s="2" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" ht="60" spans="1:5">
+        <v>52</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" ht="150" spans="1:6">
       <c r="A15" s="2" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" ht="30" spans="1:5">
+      <c r="E15" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" ht="45" spans="1:6">
       <c r="A16" s="2" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" ht="330" spans="1:6">
+      <c r="A17" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" ht="60" spans="1:6">
+      <c r="A18" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" s="13"/>
+    </row>
+    <row r="19" ht="60" spans="1:6">
+      <c r="A19" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" ht="30" spans="1:6">
+      <c r="A20" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" ht="135" spans="1:5">
-      <c r="A17" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17" s="2" t="s">
+      <c r="C20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F20" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" ht="60" spans="1:6">
+      <c r="A21" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" ht="135" spans="1:5">
-      <c r="A18" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" s="2" t="s">
+      <c r="C21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="F21" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" ht="60" spans="1:6">
+      <c r="A22" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" ht="45" spans="1:6">
-      <c r="A19" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="F19" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" ht="135" spans="1:5">
-      <c r="A20" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" ht="45" spans="1:6">
-      <c r="A21" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="22" ht="45" spans="1:5">
-      <c r="A22" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="C22" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="23" ht="60" spans="1:5">
+        <v>15</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="F22" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" ht="75" spans="1:6">
       <c r="A23" s="2" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="F23" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" ht="30" spans="1:6">
+      <c r="A24" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F24" s="10">
+        <v>4</v>
+      </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="2"/>
@@ -1713,9 +2448,8 @@
     <row r="35" spans="1:1">
       <c r="A35" s="2"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:1">
       <c r="A36" s="2"/>
-      <c r="F36" s="12"/>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="2"/>

--- a/input/testing_case.xlsx
+++ b/input/testing_case.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>Case Name</t>
   </si>
@@ -60,6 +60,108 @@
   </si>
   <si>
     <t xml:space="preserve">Give me the bounding box coordinates [ymin, xmin, ymax, xmax] in pixels of each object in this image. The output should be a JSON array containing the object type, name, and coordinates. Ensure the bounding boxes accurately encapsulate the object and the coordinates are exact. </t>
+  </si>
+  <si>
+    <t>\</t>
+  </si>
+  <si>
+    <t>Test Case 73</t>
+  </si>
+  <si>
+    <t>Common Sense</t>
+  </si>
+  <si>
+    <t>input\image\15.png</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">I need find the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>关闭</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> button and click on it, but it‘s sometimes hidden, then I need scroll down to make it visible and then click on it. Please check the image and tell the next one step concisely.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Click the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>关闭</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> button.</t>
+    </r>
+  </si>
+  <si>
+    <t>Test Case 73.1</t>
+  </si>
+  <si>
+    <t>input\image\16.png</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Scroll down and click the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>关闭</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> button.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -72,7 +174,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -240,6 +342,17 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="35">
@@ -719,7 +832,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -731,9 +844,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1088,227 +1198,203 @@
   <dimension ref="A1:G69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="10.75" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="22.625" style="2" customWidth="1"/>
     <col min="3" max="3" width="29.75" style="2" customWidth="1"/>
     <col min="4" max="4" width="19.125" style="3" customWidth="1"/>
     <col min="5" max="5" width="47.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="25.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="4"/>
+    <col min="6" max="6" width="32.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" spans="1:6">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="1" ht="75" spans="1:7">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="4"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2"/>
-      <c r="E3" s="13"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="13"/>
+      <c r="F2" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" ht="60" spans="1:6">
+      <c r="A3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" ht="60" spans="1:6">
+      <c r="A4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="13"/>
+      <c r="E6" s="12"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="14"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="13"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="14"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="13"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="14"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="13"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="14"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="13"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="14"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="13"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="14"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="13"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="14"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="13"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="15"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="14"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="13"/>
+      <c r="E15" s="12"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="16"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="15"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="16"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="15"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="17"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="16"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="14"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="13"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="16"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="15"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
       <c r="D21" s="2"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="16"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="15"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
       <c r="D22" s="2"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="16"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="15"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
       <c r="D23" s="2"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="16"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="15"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
       <c r="D24" s="2"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="14"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="13"/>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="2"/>

--- a/input/testing_case.xlsx
+++ b/input/testing_case.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>Case Name</t>
   </si>
@@ -47,121 +47,31 @@
     <t>Expected Result</t>
   </si>
   <si>
-    <t>Test Case 36</t>
-  </si>
-  <si>
-    <t>Vedio2Frame</t>
+    <t>Test Case 73.2</t>
+  </si>
+  <si>
+    <t>Common Sense</t>
   </si>
   <si>
     <t>position recognition in image</t>
   </si>
   <si>
-    <t>input\image\3.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Give me the bounding box coordinates [ymin, xmin, ymax, xmax] in pixels of each object in this image. The output should be a JSON array containing the object type, name, and coordinates. Ensure the bounding boxes accurately encapsulate the object and the coordinates are exact. </t>
-  </si>
-  <si>
-    <t>\</t>
-  </si>
-  <si>
-    <t>Test Case 73</t>
-  </si>
-  <si>
-    <t>Common Sense</t>
-  </si>
-  <si>
-    <t>input\image\15.png</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">I need find the </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>关闭</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> button and click on it, but it‘s sometimes hidden, then I need scroll down to make it visible and then click on it. Please check the image and tell the next one step concisely.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">Click the </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>关闭</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> button.</t>
-    </r>
-  </si>
-  <si>
-    <t>Test Case 73.1</t>
-  </si>
-  <si>
-    <t>input\image\16.png</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">Scroll down and click the </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>关闭</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> button.</t>
-    </r>
+    <t>input\image\17.png</t>
+  </si>
+  <si>
+    <t>I need find the "Home" button and click on it, but it‘s sometimes hidden, then I need scroll down to make it visible and then click on it. Please check the image and tell if it is visible and tell the next one step concisely.</t>
+  </si>
+  <si>
+    <t>The "Home" button is visible. Click on it.</t>
+  </si>
+  <si>
+    <t>Test Case 73.3</t>
+  </si>
+  <si>
+    <t>input\image\18.png</t>
+  </si>
+  <si>
+    <t>The "Home" button is not visible in the provided image. Scroll down the Application Browser.</t>
   </si>
 </sst>
 </file>
@@ -174,7 +84,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -342,17 +252,6 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="35">
@@ -867,7 +766,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1195,13 +1094,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G69"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="12.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="22.625" style="2" customWidth="1"/>
@@ -1232,7 +1131,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="75" spans="1:7">
+    <row r="2" ht="60" spans="1:6">
       <c r="A2" s="8" t="s">
         <v>6</v>
       </c>
@@ -1251,52 +1150,36 @@
       <c r="F2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="1"/>
     </row>
     <row r="3" ht="60" spans="1:6">
       <c r="A3" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" ht="60" spans="1:6">
-      <c r="A4" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>19</v>
-      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="13"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2"/>
       <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
+      <c r="F5" s="14"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2"/>
@@ -1305,17 +1188,17 @@
     <row r="7" spans="1:6">
       <c r="A7" s="2"/>
       <c r="E7" s="12"/>
-      <c r="F7" s="13"/>
+      <c r="F7" s="15"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2"/>
       <c r="E8" s="12"/>
-      <c r="F8" s="13"/>
+      <c r="F8" s="15"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2"/>
       <c r="E9" s="12"/>
-      <c r="F9" s="13"/>
+      <c r="F9" s="16"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2"/>
@@ -1324,77 +1207,60 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2"/>
+      <c r="D11" s="2"/>
       <c r="E11" s="12"/>
-      <c r="F11" s="13"/>
+      <c r="F11" s="15"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2"/>
+      <c r="D12" s="2"/>
       <c r="E12" s="12"/>
-      <c r="F12" s="13"/>
+      <c r="F12" s="15"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="2"/>
+      <c r="D13" s="2"/>
       <c r="E13" s="12"/>
-      <c r="F13" s="13"/>
+      <c r="F13" s="15"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="2"/>
+      <c r="D14" s="2"/>
       <c r="E14" s="12"/>
-      <c r="F14" s="14"/>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="F14" s="15"/>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="2"/>
+      <c r="D15" s="2"/>
       <c r="E15" s="12"/>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="F15" s="13"/>
+    </row>
+    <row r="16" spans="1:1">
       <c r="A16" s="2"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="15"/>
-    </row>
-    <row r="17" spans="1:6">
+    </row>
+    <row r="17" spans="1:1">
       <c r="A17" s="2"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="15"/>
-    </row>
-    <row r="18" spans="1:6">
+    </row>
+    <row r="18" spans="1:1">
       <c r="A18" s="2"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="16"/>
-    </row>
-    <row r="19" spans="1:6">
+    </row>
+    <row r="19" spans="1:1">
       <c r="A19" s="2"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="13"/>
-    </row>
-    <row r="20" spans="1:6">
+    </row>
+    <row r="20" spans="1:1">
       <c r="A20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="15"/>
-    </row>
-    <row r="21" spans="1:6">
+    </row>
+    <row r="21" spans="1:1">
       <c r="A21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="15"/>
-    </row>
-    <row r="22" spans="1:6">
+    </row>
+    <row r="22" spans="1:1">
       <c r="A22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="15"/>
-    </row>
-    <row r="23" spans="1:6">
+    </row>
+    <row r="23" spans="1:1">
       <c r="A23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="15"/>
-    </row>
-    <row r="24" spans="1:6">
+    </row>
+    <row r="24" spans="1:1">
       <c r="A24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="13"/>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="2"/>
@@ -1503,33 +1369,6 @@
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="2"/>
-    </row>
-    <row r="61" spans="1:1">
-      <c r="A61" s="2"/>
-    </row>
-    <row r="62" spans="1:1">
-      <c r="A62" s="2"/>
-    </row>
-    <row r="63" spans="1:1">
-      <c r="A63" s="2"/>
-    </row>
-    <row r="64" spans="1:1">
-      <c r="A64" s="2"/>
-    </row>
-    <row r="65" spans="1:1">
-      <c r="A65" s="2"/>
-    </row>
-    <row r="66" spans="1:1">
-      <c r="A66" s="2"/>
-    </row>
-    <row r="67" spans="1:1">
-      <c r="A67" s="2"/>
-    </row>
-    <row r="68" spans="1:1">
-      <c r="A68" s="2"/>
-    </row>
-    <row r="69" spans="1:1">
-      <c r="A69" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/input/testing_case.xlsx
+++ b/input/testing_case.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17460"/>
+    <workbookView windowWidth="29865" windowHeight="13605"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>Case Name</t>
   </si>
@@ -47,31 +47,49 @@
     <t>Expected Result</t>
   </si>
   <si>
-    <t>Test Case 73.2</t>
+    <t>Test Case 1</t>
   </si>
   <si>
-    <t>Common Sense</t>
+    <t>Video2Frame</t>
   </si>
   <si>
-    <t>position recognition in image</t>
+    <t>logic understanding in video</t>
   </si>
   <si>
-    <t>input\image\17.png</t>
+    <t>input\video\7.mp4</t>
   </si>
   <si>
-    <t>I need find the "Home" button and click on it, but it‘s sometimes hidden, then I need scroll down to make it visible and then click on it. Please check the image and tell if it is visible and tell the next one step concisely.</t>
+    <t>please tell the value entered into Excel by sequence, for each of the values, please also tell in which Excel cell position it was entered</t>
   </si>
   <si>
-    <t>The "Home" button is visible. Click on it.</t>
+    <t>1: Cell A1
+2: Cell A2
+3: Cell D1
+4: Cell D2</t>
   </si>
   <si>
-    <t>Test Case 73.3</t>
+    <t>Analyze the video and tell the values entered into Excel cell in sequence in step1, and in step2 share the Excel cell position for each of the value in step1, step3 to give the result in json format with step2 as key and step1as value.</t>
   </si>
   <si>
-    <t>input\image\18.png</t>
-  </si>
-  <si>
-    <t>The "Home" button is not visible in the provided image. Scroll down the Application Browser.</t>
+    <t>Step 1: Values Entered into Excel
+The video shows the following values being entered into an Excel spreadsheet in sequence:
+1
+2
+3
+4
+Step 2: Excel Cell Positions
+Each value from Step 1 is entered into the following cell positions:
+1: A1
+2: A2
+3: D1
+4: D2
+Step 3: JSON Format
+{
+  "A1": 1,
+  "A2": 2,
+  "D1": 3,
+  "D2": 4
+}</t>
   </si>
 </sst>
 </file>
@@ -1094,13 +1112,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F60"/>
+  <dimension ref="A1:G60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="12.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="22.625" style="2" customWidth="1"/>
@@ -1151,9 +1169,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" ht="60" spans="1:6">
+    <row r="3" customFormat="1" ht="405" spans="1:7">
       <c r="A3" s="8" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>7</v>
@@ -1162,14 +1180,15 @@
         <v>8</v>
       </c>
       <c r="D3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>14</v>
-      </c>
+      <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2"/>

--- a/input/testing_case.xlsx
+++ b/input/testing_case.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29865" windowHeight="13605"/>
+    <workbookView windowHeight="17460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>Case Name</t>
   </si>
@@ -90,6 +90,24 @@
   "D1": 3,
   "D2": 4
 }</t>
+  </si>
+  <si>
+    <t>Test Case 48</t>
+  </si>
+  <si>
+    <t>Concept Analyzer</t>
+  </si>
+  <si>
+    <t>text recognition in Excel image/OCR</t>
+  </si>
+  <si>
+    <t>input\image\6.png</t>
+  </si>
+  <si>
+    <t>Show me the json data for all the tables in the image with table name, table attributes, table values</t>
+  </si>
+  <si>
+    <t>\</t>
   </si>
 </sst>
 </file>
@@ -790,9 +808,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -800,6 +815,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1115,7 +1133,7 @@
   <dimension ref="A1:G60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -1190,15 +1208,30 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="2"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="13"/>
+    <row r="4" ht="30" spans="1:6">
+      <c r="A4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2"/>
       <c r="E5" s="12"/>
-      <c r="F5" s="14"/>
+      <c r="F5" s="13"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2"/>
@@ -1207,52 +1240,52 @@
     <row r="7" spans="1:6">
       <c r="A7" s="2"/>
       <c r="E7" s="12"/>
-      <c r="F7" s="15"/>
+      <c r="F7" s="14"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2"/>
       <c r="E8" s="12"/>
-      <c r="F8" s="15"/>
+      <c r="F8" s="14"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2"/>
       <c r="E9" s="12"/>
-      <c r="F9" s="16"/>
+      <c r="F9" s="15"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2"/>
       <c r="E10" s="12"/>
-      <c r="F10" s="13"/>
+      <c r="F10" s="16"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="12"/>
-      <c r="F11" s="15"/>
+      <c r="F11" s="14"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="12"/>
-      <c r="F12" s="15"/>
+      <c r="F12" s="14"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="12"/>
-      <c r="F13" s="15"/>
+      <c r="F13" s="14"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="12"/>
-      <c r="F14" s="15"/>
+      <c r="F14" s="14"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="12"/>
-      <c r="F15" s="13"/>
+      <c r="F15" s="16"/>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="2"/>

--- a/input/testing_case.xlsx
+++ b/input/testing_case.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Case Name</t>
   </si>
@@ -59,55 +59,62 @@
     <t>input\video\7.mp4</t>
   </si>
   <si>
-    <t>please tell the value entered into Excel by sequence, for each of the values, please also tell in which Excel cell position it was entered</t>
-  </si>
-  <si>
-    <t>1: Cell A1
-2: Cell A2
-3: Cell D1
-4: Cell D2</t>
-  </si>
-  <si>
-    <t>Analyze the video and tell the values entered into Excel cell in sequence in step1, and in step2 share the Excel cell position for each of the value in step1, step3 to give the result in json format with step2 as key and step1as value.</t>
-  </si>
-  <si>
-    <t>Step 1: Values Entered into Excel
-The video shows the following values being entered into an Excel spreadsheet in sequence:
-1
-2
-3
-4
-Step 2: Excel Cell Positions
-Each value from Step 1 is entered into the following cell positions:
-1: A1
-2: A2
-3: D1
-4: D2
-Step 3: JSON Format
-{
-  "A1": 1,
-  "A2": 2,
-  "D1": 3,
-  "D2": 4
-}</t>
-  </si>
-  <si>
-    <t>Test Case 48</t>
-  </si>
-  <si>
-    <t>Concept Analyzer</t>
-  </si>
-  <si>
-    <t>text recognition in Excel image/OCR</t>
-  </si>
-  <si>
-    <t>input\image\6.png</t>
-  </si>
-  <si>
-    <t>Show me the json data for all the tables in the image with table name, table attributes, table values</t>
-  </si>
-  <si>
-    <t>\</t>
+    <t>Please analyze the provided video combine the following frame information starts from "&lt;&lt;&lt;" and end with "&gt;&gt;&gt;" , which generated during recording the video,  a background script will recognize each of the frame and generated the information. 
+&lt;&lt;&lt;
+Start ActiveTime:1729656915021
+1912s : Mouse Clicked: at Test.xlsx - Excel____0.0_2560.1440____57.178
+6862s : Key pressed: at Test.xlsx - Excel___0.0_2560.14401
+8417s : Mouse Clicked: at Test.xlsx - Exce1___0.0_2560.1440____48.201
+9549s : Key pressed: at Test.xlsx - Excel 0.0 2560.1440 2
+22128s : Mouse Clicked: at Test.xlsx - Excel___0.0_2560.1440__254.184
+23668s : Key pressed: at Test.xlsx - Excel___0.0_2560.1440__3
+28024s : Key pressed: at Test.xlsx - Excel_____0.0_2560.1440____Down
+28492s : Key pressed: at Test.xlsx - Excel____0.0_2560.1440__4
+29620s : Key down: at Test.xlsx - Excel____0.0_2560.1440_Ctrl
+29788s : Key pressed: at Test.xlsx - Excel___0.0_2560.1440_S
+29921s : Key up: at Test.xlsx - Exce1___0.0_2560.1440___Ctrl
+&gt;&gt;&gt;
+Analyze the video and the frame information to summarize relative information into JSON data with the fields which can refer to following JSON sample:
+[
+  {
+    "action_id": 1,
+    "actioned_conecpt": "ExcelCell.A1",
+    "action": [
+      {
+        "type": "LEFT_CLICK",
+        "value": null
+      }
+    ],
+    "pictureInfo": {
+      "windowLeftUpperPoint":"0,0",
+      "windowRightBottomPoint":"2560,1440",
+      "applicatoinTitle":"Testing.xlsx-Excel",
+      "mousePoint":"57,178",
+      "action":"LEFT_CLICK",
+      "id": 1912
+    },
+    "next_action_id":2
+  },
+  {
+    "action_id": 2,
+    "actioned_conecpt": "ExcelCell.A1",
+    "action": [
+      {
+        "type": "KEY_PRESS",
+        "value": "1"
+      }
+    ],
+    "pictureInfo": {
+      "windowLeftUpperPoint":"0,0",
+      "windowRightBottomPoint":"2560,1440",
+      "applicatoinTitle":"Testing.xlsx-Excel",
+      "mousePoint":null,
+      "action":"KEY_PRESS",
+      "id": 6862
+    },
+    "next_action_id":0
+  }
+]</t>
   </si>
 </sst>
 </file>
@@ -767,7 +774,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -800,9 +807,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1130,13 +1134,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G60"/>
+  <dimension ref="A1:F58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="12.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="22.625" style="2" customWidth="1"/>
@@ -1167,7 +1171,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="60" spans="1:6">
+    <row r="2" customFormat="1" ht="409.5" spans="1:6">
       <c r="A2" s="8" t="s">
         <v>6</v>
       </c>
@@ -1183,109 +1187,72 @@
       <c r="E2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" customFormat="1" ht="405" spans="1:7">
-      <c r="A3" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" ht="30" spans="1:6">
-      <c r="A4" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>19</v>
-      </c>
+      <c r="F2" s="10"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="12"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2"/>
+      <c r="E4" s="11"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2"/>
-      <c r="E5" s="12"/>
+      <c r="E5" s="11"/>
       <c r="F5" s="13"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="A6" s="2"/>
-      <c r="E6" s="12"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="13"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2"/>
-      <c r="E7" s="12"/>
+      <c r="E7" s="11"/>
       <c r="F7" s="14"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="14"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="15"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="15"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="13"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="16"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="13"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="14"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="13"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="14"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="13"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="14"/>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="E13" s="11"/>
+      <c r="F13" s="15"/>
+    </row>
+    <row r="14" spans="1:1">
       <c r="A14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="14"/>
-    </row>
-    <row r="15" spans="1:6">
+    </row>
+    <row r="15" spans="1:1">
       <c r="A15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="16"/>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="2"/>
@@ -1415,12 +1382,6 @@
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="2"/>
-    </row>
-    <row r="59" spans="1:1">
-      <c r="A59" s="2"/>
-    </row>
-    <row r="60" spans="1:1">
-      <c r="A60" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
